--- a/src/test/resources/TestDataFiles/vehicleRenewal.xlsx
+++ b/src/test/resources/TestDataFiles/vehicleRenewal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedabdo/IdeaProjects/vls-frontend-automation/src/test/resources/TestDataFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\IDrive-Sync\DevOps_Repos\vls-frontend-automation\src\test\resources\TestDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55AD960-25D6-BE49-8027-435F775234E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D6AF40-F896-445C-AE6C-E399B6DA3CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16000" xr2:uid="{3CFFB721-2F92-42A1-87DC-741A872FBFB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="16590" xr2:uid="{3CFFB721-2F92-42A1-87DC-741A872FBFB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vehicleRenewal" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>VCL_ID_3</t>
   </si>
@@ -64,20 +64,26 @@
     <t>false</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>3000</t>
   </si>
   <si>
     <t>UAE_CITIZEN</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>11900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,20 +542,20 @@
   <dimension ref="A1:F527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -569,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -577,27 +583,39 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="20">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -605,7 +623,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="20">
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -613,7 +631,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="20">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -621,7 +639,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="20">
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -629,7 +647,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="20">
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -637,7 +655,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="20">
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -645,7 +663,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="20">
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -653,7 +671,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="20">
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -661,7 +679,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" ht="20">
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -669,7 +687,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="20">
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -677,7 +695,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" ht="20">
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -685,7 +703,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="20">
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -693,7 +711,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" ht="20">
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -701,7 +719,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="20">
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -709,7 +727,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" ht="20">
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -717,7 +735,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="20">
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -725,7 +743,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="20">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -733,7 +751,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="20">
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -741,7 +759,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" ht="20">
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -749,7 +767,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="20">
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -757,7 +775,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" ht="20">
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -765,7 +783,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="20">
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -773,7 +791,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="20">
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -781,7 +799,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="20">
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -789,7 +807,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" ht="20">
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -797,7 +815,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="20">
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -805,7 +823,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" ht="20">
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -813,7 +831,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="20">
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -821,7 +839,7 @@
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" ht="20">
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -829,7 +847,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="20">
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -837,7 +855,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" ht="20">
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -845,7 +863,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="20">
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -853,7 +871,7 @@
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" ht="20">
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -861,7 +879,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="20">
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -869,7 +887,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" ht="20">
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -877,7 +895,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="20">
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -885,7 +903,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" ht="20">
+    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -893,7 +911,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="20">
+    <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -901,7 +919,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" ht="20">
+    <row r="42" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -909,7 +927,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="20">
+    <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -917,7 +935,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" ht="20">
+    <row r="44" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -925,7 +943,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="20">
+    <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -933,7 +951,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" ht="20">
+    <row r="46" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -941,7 +959,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="20">
+    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -949,7 +967,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" ht="20">
+    <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -957,7 +975,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="20">
+    <row r="49" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -965,7 +983,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" ht="20">
+    <row r="50" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -973,7 +991,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="20">
+    <row r="51" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -981,7 +999,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" ht="20">
+    <row r="52" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -989,7 +1007,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="20">
+    <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -997,7 +1015,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" ht="20">
+    <row r="54" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1005,7 +1023,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="20">
+    <row r="55" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1013,7 +1031,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6" ht="20">
+    <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1021,7 +1039,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="20">
+    <row r="57" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1029,7 +1047,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:6" ht="20">
+    <row r="58" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1037,7 +1055,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="20">
+    <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -1045,7 +1063,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" ht="20">
+    <row r="60" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1053,7 +1071,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" ht="20">
+    <row r="61" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -1061,7 +1079,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" ht="20">
+    <row r="62" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1069,7 +1087,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="20">
+    <row r="63" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -1077,7 +1095,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" ht="20">
+    <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1085,7 +1103,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" ht="20">
+    <row r="65" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -1093,7 +1111,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:6" ht="20">
+    <row r="66" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1101,7 +1119,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" ht="20">
+    <row r="67" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -1109,7 +1127,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:6" ht="20">
+    <row r="68" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1117,7 +1135,7 @@
       <c r="E68" s="6"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="20">
+    <row r="69" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -1125,7 +1143,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:6" ht="20">
+    <row r="70" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1133,7 +1151,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" ht="20">
+    <row r="71" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -1141,7 +1159,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:6" ht="20">
+    <row r="72" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1149,7 +1167,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="20">
+    <row r="73" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -1157,7 +1175,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:6" ht="20">
+    <row r="74" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1165,7 +1183,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" ht="20">
+    <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -1173,7 +1191,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:6" ht="20">
+    <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1181,7 +1199,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" ht="20">
+    <row r="77" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -1189,7 +1207,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:6" ht="20">
+    <row r="78" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1197,7 +1215,7 @@
       <c r="E78" s="6"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" ht="20">
+    <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -1205,7 +1223,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:6" ht="20">
+    <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1213,7 +1231,7 @@
       <c r="E80" s="6"/>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" ht="20">
+    <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -1221,7 +1239,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:6" ht="20">
+    <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1229,7 +1247,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" ht="20">
+    <row r="83" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -1237,7 +1255,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
     </row>
-    <row r="84" spans="1:6" ht="20">
+    <row r="84" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1245,7 +1263,7 @@
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" ht="20">
+    <row r="85" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -1253,7 +1271,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:6" ht="20">
+    <row r="86" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -1261,7 +1279,7 @@
       <c r="E86" s="6"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" ht="20">
+    <row r="87" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -1269,7 +1287,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
     </row>
-    <row r="88" spans="1:6" ht="20">
+    <row r="88" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -1277,7 +1295,7 @@
       <c r="E88" s="6"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" ht="20">
+    <row r="89" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -1285,7 +1303,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:6" ht="20">
+    <row r="90" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -1293,7 +1311,7 @@
       <c r="E90" s="6"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" ht="20">
+    <row r="91" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -1301,7 +1319,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
     </row>
-    <row r="92" spans="1:6" ht="20">
+    <row r="92" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -1309,7 +1327,7 @@
       <c r="E92" s="6"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" ht="20">
+    <row r="93" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -1317,7 +1335,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
     </row>
-    <row r="94" spans="1:6" ht="20">
+    <row r="94" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -1325,7 +1343,7 @@
       <c r="E94" s="6"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" ht="20">
+    <row r="95" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -1333,7 +1351,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" ht="20">
+    <row r="96" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -1341,7 +1359,7 @@
       <c r="E96" s="6"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" ht="20">
+    <row r="97" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -1349,7 +1367,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="1:6" ht="20">
+    <row r="98" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -1357,7 +1375,7 @@
       <c r="E98" s="6"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" ht="20">
+    <row r="99" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -1365,7 +1383,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="1:6" ht="20">
+    <row r="100" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -1373,7 +1391,7 @@
       <c r="E100" s="6"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" ht="20">
+    <row r="101" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -1381,7 +1399,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:6" ht="20">
+    <row r="102" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -1389,7 +1407,7 @@
       <c r="E102" s="6"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" ht="20">
+    <row r="103" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -1397,7 +1415,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="1:6" ht="20">
+    <row r="104" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -1405,7 +1423,7 @@
       <c r="E104" s="6"/>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" ht="20">
+    <row r="105" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -1413,7 +1431,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:6" ht="20">
+    <row r="106" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -1421,7 +1439,7 @@
       <c r="E106" s="6"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" ht="20">
+    <row r="107" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -1429,7 +1447,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
     </row>
-    <row r="108" spans="1:6" ht="20">
+    <row r="108" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -1437,7 +1455,7 @@
       <c r="E108" s="6"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" ht="20">
+    <row r="109" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -1445,7 +1463,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:6" ht="20">
+    <row r="110" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -1453,7 +1471,7 @@
       <c r="E110" s="6"/>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" ht="20">
+    <row r="111" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -1461,7 +1479,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:6" ht="20">
+    <row r="112" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -1469,7 +1487,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" ht="20">
+    <row r="113" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -1477,7 +1495,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="1:6" ht="20">
+    <row r="114" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -1485,7 +1503,7 @@
       <c r="E114" s="6"/>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6" ht="20">
+    <row r="115" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -1493,7 +1511,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="1:6" ht="20">
+    <row r="116" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -1501,7 +1519,7 @@
       <c r="E116" s="6"/>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" ht="20">
+    <row r="117" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -1509,7 +1527,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
     </row>
-    <row r="118" spans="1:6" ht="20">
+    <row r="118" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -1517,7 +1535,7 @@
       <c r="E118" s="6"/>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" ht="20">
+    <row r="119" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -1525,7 +1543,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" ht="20">
+    <row r="120" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -1533,7 +1551,7 @@
       <c r="E120" s="6"/>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" ht="20">
+    <row r="121" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -1541,7 +1559,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" ht="20">
+    <row r="122" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -1549,7 +1567,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" ht="20">
+    <row r="123" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -1557,7 +1575,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" ht="20">
+    <row r="124" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -1565,7 +1583,7 @@
       <c r="E124" s="6"/>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" ht="20">
+    <row r="125" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -1573,7 +1591,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" ht="20">
+    <row r="126" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -1581,7 +1599,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" ht="20">
+    <row r="127" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -1589,7 +1607,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" ht="20">
+    <row r="128" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -1597,7 +1615,7 @@
       <c r="E128" s="6"/>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" ht="20">
+    <row r="129" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -1605,7 +1623,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" ht="20">
+    <row r="130" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -1613,7 +1631,7 @@
       <c r="E130" s="6"/>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" ht="20">
+    <row r="131" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -1621,7 +1639,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" ht="20">
+    <row r="132" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -1629,7 +1647,7 @@
       <c r="E132" s="6"/>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" ht="20">
+    <row r="133" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -1637,7 +1655,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="11"/>
     </row>
-    <row r="134" spans="1:6" ht="20">
+    <row r="134" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -1645,7 +1663,7 @@
       <c r="E134" s="6"/>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" ht="20">
+    <row r="135" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -1653,7 +1671,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
     </row>
-    <row r="136" spans="1:6" ht="20">
+    <row r="136" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -1661,7 +1679,7 @@
       <c r="E136" s="6"/>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" ht="20">
+    <row r="137" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -1669,7 +1687,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="11"/>
     </row>
-    <row r="138" spans="1:6" ht="20">
+    <row r="138" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -1677,7 +1695,7 @@
       <c r="E138" s="6"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" ht="20">
+    <row r="139" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -1685,7 +1703,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
     </row>
-    <row r="140" spans="1:6" ht="20">
+    <row r="140" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -1693,7 +1711,7 @@
       <c r="E140" s="6"/>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" ht="20">
+    <row r="141" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -1701,7 +1719,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
     </row>
-    <row r="142" spans="1:6" ht="20">
+    <row r="142" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -1709,7 +1727,7 @@
       <c r="E142" s="6"/>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" ht="20">
+    <row r="143" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -1717,7 +1735,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="11"/>
     </row>
-    <row r="144" spans="1:6" ht="20">
+    <row r="144" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -1725,7 +1743,7 @@
       <c r="E144" s="6"/>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" ht="20">
+    <row r="145" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -1733,7 +1751,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="11"/>
     </row>
-    <row r="146" spans="1:6" ht="20">
+    <row r="146" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -1741,7 +1759,7 @@
       <c r="E146" s="6"/>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" ht="20">
+    <row r="147" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -1749,7 +1767,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="11"/>
     </row>
-    <row r="148" spans="1:6" ht="20">
+    <row r="148" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -1757,7 +1775,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" ht="20">
+    <row r="149" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -1765,7 +1783,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
     </row>
-    <row r="150" spans="1:6" ht="20">
+    <row r="150" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -1773,7 +1791,7 @@
       <c r="E150" s="6"/>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" ht="20">
+    <row r="151" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -1781,7 +1799,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
     </row>
-    <row r="152" spans="1:6" ht="20">
+    <row r="152" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -1789,7 +1807,7 @@
       <c r="E152" s="6"/>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" ht="20">
+    <row r="153" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -1797,7 +1815,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
     </row>
-    <row r="154" spans="1:6" ht="20">
+    <row r="154" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -1805,7 +1823,7 @@
       <c r="E154" s="6"/>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" ht="20">
+    <row r="155" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -1813,7 +1831,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="11"/>
     </row>
-    <row r="156" spans="1:6" ht="20">
+    <row r="156" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -1821,7 +1839,7 @@
       <c r="E156" s="6"/>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" ht="20">
+    <row r="157" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -1829,7 +1847,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="11"/>
     </row>
-    <row r="158" spans="1:6" ht="20">
+    <row r="158" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -1837,7 +1855,7 @@
       <c r="E158" s="6"/>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" ht="20">
+    <row r="159" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -1845,7 +1863,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
     </row>
-    <row r="160" spans="1:6" ht="20">
+    <row r="160" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -1853,7 +1871,7 @@
       <c r="E160" s="6"/>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" ht="20">
+    <row r="161" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -1861,7 +1879,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="1:6" ht="20">
+    <row r="162" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -1869,7 +1887,7 @@
       <c r="E162" s="6"/>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" ht="20">
+    <row r="163" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -1877,7 +1895,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="1:6" ht="20">
+    <row r="164" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -1885,7 +1903,7 @@
       <c r="E164" s="6"/>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" ht="20">
+    <row r="165" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -1893,7 +1911,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="1:6" ht="20">
+    <row r="166" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -1901,7 +1919,7 @@
       <c r="E166" s="6"/>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" ht="20">
+    <row r="167" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -1909,7 +1927,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="1:6" ht="20">
+    <row r="168" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -1917,7 +1935,7 @@
       <c r="E168" s="6"/>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" ht="20">
+    <row r="169" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -1925,7 +1943,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="1:6" ht="20">
+    <row r="170" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -1933,7 +1951,7 @@
       <c r="E170" s="6"/>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" ht="20">
+    <row r="171" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -1941,7 +1959,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="11"/>
     </row>
-    <row r="172" spans="1:6" ht="20">
+    <row r="172" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -1949,7 +1967,7 @@
       <c r="E172" s="6"/>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" ht="20">
+    <row r="173" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="8"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -1957,7 +1975,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="11"/>
     </row>
-    <row r="174" spans="1:6" ht="20">
+    <row r="174" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -1965,7 +1983,7 @@
       <c r="E174" s="6"/>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" ht="20">
+    <row r="175" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -1973,7 +1991,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="11"/>
     </row>
-    <row r="176" spans="1:6" ht="20">
+    <row r="176" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -1981,7 +1999,7 @@
       <c r="E176" s="6"/>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" ht="20">
+    <row r="177" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -1989,7 +2007,7 @@
       <c r="E177" s="10"/>
       <c r="F177" s="11"/>
     </row>
-    <row r="178" spans="1:6" ht="20">
+    <row r="178" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -1997,7 +2015,7 @@
       <c r="E178" s="6"/>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" ht="20">
+    <row r="179" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -2005,7 +2023,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="11"/>
     </row>
-    <row r="180" spans="1:6" ht="20">
+    <row r="180" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -2013,7 +2031,7 @@
       <c r="E180" s="6"/>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" ht="20">
+    <row r="181" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -2021,7 +2039,7 @@
       <c r="E181" s="10"/>
       <c r="F181" s="11"/>
     </row>
-    <row r="182" spans="1:6" ht="20">
+    <row r="182" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -2029,7 +2047,7 @@
       <c r="E182" s="6"/>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" ht="20">
+    <row r="183" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -2037,7 +2055,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="11"/>
     </row>
-    <row r="184" spans="1:6" ht="20">
+    <row r="184" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -2045,7 +2063,7 @@
       <c r="E184" s="6"/>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" ht="20">
+    <row r="185" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -2053,7 +2071,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="11"/>
     </row>
-    <row r="186" spans="1:6" ht="20">
+    <row r="186" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -2061,7 +2079,7 @@
       <c r="E186" s="6"/>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" ht="20">
+    <row r="187" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -2069,7 +2087,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="11"/>
     </row>
-    <row r="188" spans="1:6" ht="20">
+    <row r="188" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -2077,7 +2095,7 @@
       <c r="E188" s="6"/>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" ht="20">
+    <row r="189" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -2085,7 +2103,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="11"/>
     </row>
-    <row r="190" spans="1:6" ht="20">
+    <row r="190" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -2093,7 +2111,7 @@
       <c r="E190" s="6"/>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" ht="20">
+    <row r="191" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -2101,7 +2119,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="11"/>
     </row>
-    <row r="192" spans="1:6" ht="20">
+    <row r="192" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -2109,7 +2127,7 @@
       <c r="E192" s="6"/>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" ht="20">
+    <row r="193" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -2117,7 +2135,7 @@
       <c r="E193" s="10"/>
       <c r="F193" s="11"/>
     </row>
-    <row r="194" spans="1:6" ht="20">
+    <row r="194" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -2125,7 +2143,7 @@
       <c r="E194" s="6"/>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" ht="20">
+    <row r="195" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -2133,7 +2151,7 @@
       <c r="E195" s="10"/>
       <c r="F195" s="11"/>
     </row>
-    <row r="196" spans="1:6" ht="20">
+    <row r="196" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -2141,7 +2159,7 @@
       <c r="E196" s="6"/>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" ht="20">
+    <row r="197" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -2149,7 +2167,7 @@
       <c r="E197" s="10"/>
       <c r="F197" s="11"/>
     </row>
-    <row r="198" spans="1:6" ht="20">
+    <row r="198" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -2157,7 +2175,7 @@
       <c r="E198" s="6"/>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" ht="20">
+    <row r="199" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="8"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -2165,7 +2183,7 @@
       <c r="E199" s="10"/>
       <c r="F199" s="11"/>
     </row>
-    <row r="200" spans="1:6" ht="20">
+    <row r="200" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -2173,7 +2191,7 @@
       <c r="E200" s="6"/>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" ht="20">
+    <row r="201" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="8"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -2181,7 +2199,7 @@
       <c r="E201" s="10"/>
       <c r="F201" s="11"/>
     </row>
-    <row r="202" spans="1:6" ht="20">
+    <row r="202" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -2189,7 +2207,7 @@
       <c r="E202" s="6"/>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6" ht="20">
+    <row r="203" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="8"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -2197,7 +2215,7 @@
       <c r="E203" s="10"/>
       <c r="F203" s="11"/>
     </row>
-    <row r="204" spans="1:6" ht="20">
+    <row r="204" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -2205,7 +2223,7 @@
       <c r="E204" s="6"/>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" ht="20">
+    <row r="205" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="8"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -2213,7 +2231,7 @@
       <c r="E205" s="10"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="1:6" ht="20">
+    <row r="206" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -2221,7 +2239,7 @@
       <c r="E206" s="6"/>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" ht="20">
+    <row r="207" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="8"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -2229,7 +2247,7 @@
       <c r="E207" s="10"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="1:6" ht="20">
+    <row r="208" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -2237,7 +2255,7 @@
       <c r="E208" s="6"/>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" ht="20">
+    <row r="209" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="8"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -2245,7 +2263,7 @@
       <c r="E209" s="10"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="1:6" ht="20">
+    <row r="210" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -2253,7 +2271,7 @@
       <c r="E210" s="6"/>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" ht="20">
+    <row r="211" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="8"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -2261,7 +2279,7 @@
       <c r="E211" s="10"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="1:6" ht="20">
+    <row r="212" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -2269,7 +2287,7 @@
       <c r="E212" s="6"/>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" ht="20">
+    <row r="213" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="8"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -2277,7 +2295,7 @@
       <c r="E213" s="10"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="1:6" ht="20">
+    <row r="214" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -2285,7 +2303,7 @@
       <c r="E214" s="6"/>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="1:6" ht="20">
+    <row r="215" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="8"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -2293,7 +2311,7 @@
       <c r="E215" s="10"/>
       <c r="F215" s="11"/>
     </row>
-    <row r="216" spans="1:6" ht="20">
+    <row r="216" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -2301,7 +2319,7 @@
       <c r="E216" s="6"/>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="1:6" ht="20">
+    <row r="217" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="8"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -2309,7 +2327,7 @@
       <c r="E217" s="10"/>
       <c r="F217" s="11"/>
     </row>
-    <row r="218" spans="1:6" ht="20">
+    <row r="218" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -2317,7 +2335,7 @@
       <c r="E218" s="6"/>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="1:6" ht="20">
+    <row r="219" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="8"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -2325,7 +2343,7 @@
       <c r="E219" s="10"/>
       <c r="F219" s="11"/>
     </row>
-    <row r="220" spans="1:6" ht="20">
+    <row r="220" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -2333,7 +2351,7 @@
       <c r="E220" s="6"/>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="1:6" ht="20">
+    <row r="221" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="8"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -2341,7 +2359,7 @@
       <c r="E221" s="10"/>
       <c r="F221" s="11"/>
     </row>
-    <row r="222" spans="1:6" ht="20">
+    <row r="222" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -2349,7 +2367,7 @@
       <c r="E222" s="6"/>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="1:6" ht="20">
+    <row r="223" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="8"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -2357,7 +2375,7 @@
       <c r="E223" s="10"/>
       <c r="F223" s="11"/>
     </row>
-    <row r="224" spans="1:6" ht="20">
+    <row r="224" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -2365,7 +2383,7 @@
       <c r="E224" s="6"/>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="1:6" ht="20">
+    <row r="225" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="8"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -2373,7 +2391,7 @@
       <c r="E225" s="10"/>
       <c r="F225" s="11"/>
     </row>
-    <row r="226" spans="1:6" ht="20">
+    <row r="226" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -2381,7 +2399,7 @@
       <c r="E226" s="6"/>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="1:6" ht="20">
+    <row r="227" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="8"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -2389,7 +2407,7 @@
       <c r="E227" s="10"/>
       <c r="F227" s="11"/>
     </row>
-    <row r="228" spans="1:6" ht="20">
+    <row r="228" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -2397,7 +2415,7 @@
       <c r="E228" s="6"/>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="1:6" ht="20">
+    <row r="229" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="8"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -2405,7 +2423,7 @@
       <c r="E229" s="10"/>
       <c r="F229" s="11"/>
     </row>
-    <row r="230" spans="1:6" ht="20">
+    <row r="230" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -2413,7 +2431,7 @@
       <c r="E230" s="6"/>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="1:6" ht="20">
+    <row r="231" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="8"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -2421,7 +2439,7 @@
       <c r="E231" s="10"/>
       <c r="F231" s="11"/>
     </row>
-    <row r="232" spans="1:6" ht="20">
+    <row r="232" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -2429,7 +2447,7 @@
       <c r="E232" s="6"/>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="1:6" ht="20">
+    <row r="233" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="8"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -2437,7 +2455,7 @@
       <c r="E233" s="10"/>
       <c r="F233" s="11"/>
     </row>
-    <row r="234" spans="1:6" ht="20">
+    <row r="234" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -2445,7 +2463,7 @@
       <c r="E234" s="6"/>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6" ht="20">
+    <row r="235" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="8"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -2453,7 +2471,7 @@
       <c r="E235" s="10"/>
       <c r="F235" s="11"/>
     </row>
-    <row r="236" spans="1:6" ht="20">
+    <row r="236" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -2461,7 +2479,7 @@
       <c r="E236" s="6"/>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="1:6" ht="20">
+    <row r="237" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="8"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -2469,7 +2487,7 @@
       <c r="E237" s="10"/>
       <c r="F237" s="11"/>
     </row>
-    <row r="238" spans="1:6" ht="20">
+    <row r="238" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -2477,7 +2495,7 @@
       <c r="E238" s="6"/>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6" ht="20">
+    <row r="239" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="8"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -2485,7 +2503,7 @@
       <c r="E239" s="10"/>
       <c r="F239" s="11"/>
     </row>
-    <row r="240" spans="1:6" ht="20">
+    <row r="240" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -2493,7 +2511,7 @@
       <c r="E240" s="6"/>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" ht="20">
+    <row r="241" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="8"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -2501,7 +2519,7 @@
       <c r="E241" s="10"/>
       <c r="F241" s="11"/>
     </row>
-    <row r="242" spans="1:6" ht="20">
+    <row r="242" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -2509,7 +2527,7 @@
       <c r="E242" s="6"/>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6" ht="20">
+    <row r="243" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="8"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -2517,7 +2535,7 @@
       <c r="E243" s="10"/>
       <c r="F243" s="11"/>
     </row>
-    <row r="244" spans="1:6" ht="20">
+    <row r="244" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -2525,7 +2543,7 @@
       <c r="E244" s="6"/>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6" ht="20">
+    <row r="245" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="8"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -2533,7 +2551,7 @@
       <c r="E245" s="10"/>
       <c r="F245" s="11"/>
     </row>
-    <row r="246" spans="1:6" ht="20">
+    <row r="246" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -2541,7 +2559,7 @@
       <c r="E246" s="6"/>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" ht="20">
+    <row r="247" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="8"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -2549,7 +2567,7 @@
       <c r="E247" s="10"/>
       <c r="F247" s="11"/>
     </row>
-    <row r="248" spans="1:6" ht="20">
+    <row r="248" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -2557,7 +2575,7 @@
       <c r="E248" s="6"/>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6" ht="20">
+    <row r="249" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="8"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -2565,7 +2583,7 @@
       <c r="E249" s="10"/>
       <c r="F249" s="11"/>
     </row>
-    <row r="250" spans="1:6" ht="20">
+    <row r="250" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -2573,7 +2591,7 @@
       <c r="E250" s="6"/>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6" ht="20">
+    <row r="251" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="8"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -2581,7 +2599,7 @@
       <c r="E251" s="10"/>
       <c r="F251" s="11"/>
     </row>
-    <row r="252" spans="1:6" ht="20">
+    <row r="252" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -2589,7 +2607,7 @@
       <c r="E252" s="6"/>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" ht="20">
+    <row r="253" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="8"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -2597,7 +2615,7 @@
       <c r="E253" s="10"/>
       <c r="F253" s="11"/>
     </row>
-    <row r="254" spans="1:6" ht="20">
+    <row r="254" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -2605,7 +2623,7 @@
       <c r="E254" s="6"/>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6" ht="20">
+    <row r="255" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="8"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -2613,7 +2631,7 @@
       <c r="E255" s="10"/>
       <c r="F255" s="11"/>
     </row>
-    <row r="256" spans="1:6" ht="20">
+    <row r="256" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -2621,7 +2639,7 @@
       <c r="E256" s="6"/>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6" ht="20">
+    <row r="257" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="8"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -2629,7 +2647,7 @@
       <c r="E257" s="10"/>
       <c r="F257" s="11"/>
     </row>
-    <row r="258" spans="1:6" ht="20">
+    <row r="258" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -2637,7 +2655,7 @@
       <c r="E258" s="6"/>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" ht="20">
+    <row r="259" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="8"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -2645,7 +2663,7 @@
       <c r="E259" s="10"/>
       <c r="F259" s="11"/>
     </row>
-    <row r="260" spans="1:6" ht="20">
+    <row r="260" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -2653,7 +2671,7 @@
       <c r="E260" s="6"/>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6" ht="20">
+    <row r="261" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="8"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -2661,7 +2679,7 @@
       <c r="E261" s="10"/>
       <c r="F261" s="11"/>
     </row>
-    <row r="262" spans="1:6" ht="20">
+    <row r="262" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -2669,7 +2687,7 @@
       <c r="E262" s="6"/>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6" ht="20">
+    <row r="263" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="8"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -2677,7 +2695,7 @@
       <c r="E263" s="10"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="1:6" ht="20">
+    <row r="264" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -2685,7 +2703,7 @@
       <c r="E264" s="6"/>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" ht="20">
+    <row r="265" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="8"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -2693,7 +2711,7 @@
       <c r="E265" s="10"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="1:6" ht="20">
+    <row r="266" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -2701,7 +2719,7 @@
       <c r="E266" s="6"/>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="1:6" ht="20">
+    <row r="267" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="8"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -2709,7 +2727,7 @@
       <c r="E267" s="10"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="1:6" ht="20">
+    <row r="268" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -2717,7 +2735,7 @@
       <c r="E268" s="6"/>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="1:6" ht="20">
+    <row r="269" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="8"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -2725,7 +2743,7 @@
       <c r="E269" s="10"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="1:6" ht="20">
+    <row r="270" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -2733,7 +2751,7 @@
       <c r="E270" s="6"/>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6" ht="20">
+    <row r="271" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="8"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -2741,7 +2759,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="1:6" ht="20">
+    <row r="272" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -2749,7 +2767,7 @@
       <c r="E272" s="6"/>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="1:6" ht="20">
+    <row r="273" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="8"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -2757,7 +2775,7 @@
       <c r="E273" s="10"/>
       <c r="F273" s="11"/>
     </row>
-    <row r="274" spans="1:6" ht="20">
+    <row r="274" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -2765,7 +2783,7 @@
       <c r="E274" s="6"/>
       <c r="F274" s="7"/>
     </row>
-    <row r="275" spans="1:6" ht="20">
+    <row r="275" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="8"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -2773,7 +2791,7 @@
       <c r="E275" s="10"/>
       <c r="F275" s="11"/>
     </row>
-    <row r="276" spans="1:6" ht="20">
+    <row r="276" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -2781,7 +2799,7 @@
       <c r="E276" s="6"/>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="1:6" ht="20">
+    <row r="277" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="8"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -2789,7 +2807,7 @@
       <c r="E277" s="10"/>
       <c r="F277" s="11"/>
     </row>
-    <row r="278" spans="1:6" ht="20">
+    <row r="278" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -2797,7 +2815,7 @@
       <c r="E278" s="6"/>
       <c r="F278" s="7"/>
     </row>
-    <row r="279" spans="1:6" ht="20">
+    <row r="279" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="8"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -2805,7 +2823,7 @@
       <c r="E279" s="10"/>
       <c r="F279" s="11"/>
     </row>
-    <row r="280" spans="1:6" ht="20">
+    <row r="280" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -2813,7 +2831,7 @@
       <c r="E280" s="6"/>
       <c r="F280" s="7"/>
     </row>
-    <row r="281" spans="1:6" ht="20">
+    <row r="281" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="8"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -2821,7 +2839,7 @@
       <c r="E281" s="10"/>
       <c r="F281" s="11"/>
     </row>
-    <row r="282" spans="1:6" ht="20">
+    <row r="282" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -2829,7 +2847,7 @@
       <c r="E282" s="6"/>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="1:6" ht="20">
+    <row r="283" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="8"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -2837,7 +2855,7 @@
       <c r="E283" s="10"/>
       <c r="F283" s="11"/>
     </row>
-    <row r="284" spans="1:6" ht="20">
+    <row r="284" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -2845,7 +2863,7 @@
       <c r="E284" s="6"/>
       <c r="F284" s="7"/>
     </row>
-    <row r="285" spans="1:6" ht="20">
+    <row r="285" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="8"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -2853,7 +2871,7 @@
       <c r="E285" s="10"/>
       <c r="F285" s="11"/>
     </row>
-    <row r="286" spans="1:6" ht="20">
+    <row r="286" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -2861,7 +2879,7 @@
       <c r="E286" s="6"/>
       <c r="F286" s="7"/>
     </row>
-    <row r="287" spans="1:6" ht="20">
+    <row r="287" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="8"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -2869,7 +2887,7 @@
       <c r="E287" s="10"/>
       <c r="F287" s="11"/>
     </row>
-    <row r="288" spans="1:6" ht="20">
+    <row r="288" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -2877,7 +2895,7 @@
       <c r="E288" s="6"/>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="1:6" ht="20">
+    <row r="289" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="8"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -2885,7 +2903,7 @@
       <c r="E289" s="10"/>
       <c r="F289" s="11"/>
     </row>
-    <row r="290" spans="1:6" ht="20">
+    <row r="290" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -2893,7 +2911,7 @@
       <c r="E290" s="6"/>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="1:6" ht="20">
+    <row r="291" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="8"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -2901,7 +2919,7 @@
       <c r="E291" s="10"/>
       <c r="F291" s="11"/>
     </row>
-    <row r="292" spans="1:6" ht="20">
+    <row r="292" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -2909,7 +2927,7 @@
       <c r="E292" s="6"/>
       <c r="F292" s="7"/>
     </row>
-    <row r="293" spans="1:6" ht="20">
+    <row r="293" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="8"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -2917,7 +2935,7 @@
       <c r="E293" s="10"/>
       <c r="F293" s="11"/>
     </row>
-    <row r="294" spans="1:6" ht="20">
+    <row r="294" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -2925,7 +2943,7 @@
       <c r="E294" s="6"/>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="1:6" ht="20">
+    <row r="295" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="8"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -2933,7 +2951,7 @@
       <c r="E295" s="10"/>
       <c r="F295" s="11"/>
     </row>
-    <row r="296" spans="1:6" ht="20">
+    <row r="296" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -2941,7 +2959,7 @@
       <c r="E296" s="6"/>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="1:6" ht="20">
+    <row r="297" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="8"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -2949,7 +2967,7 @@
       <c r="E297" s="10"/>
       <c r="F297" s="11"/>
     </row>
-    <row r="298" spans="1:6" ht="20">
+    <row r="298" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -2957,7 +2975,7 @@
       <c r="E298" s="6"/>
       <c r="F298" s="7"/>
     </row>
-    <row r="299" spans="1:6" ht="20">
+    <row r="299" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="8"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -2965,7 +2983,7 @@
       <c r="E299" s="10"/>
       <c r="F299" s="11"/>
     </row>
-    <row r="300" spans="1:6" ht="20">
+    <row r="300" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -2973,7 +2991,7 @@
       <c r="E300" s="6"/>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="1:6" ht="20">
+    <row r="301" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="8"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -2981,7 +2999,7 @@
       <c r="E301" s="10"/>
       <c r="F301" s="11"/>
     </row>
-    <row r="302" spans="1:6" ht="20">
+    <row r="302" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -2989,7 +3007,7 @@
       <c r="E302" s="6"/>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="1:6" ht="20">
+    <row r="303" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="8"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -2997,7 +3015,7 @@
       <c r="E303" s="10"/>
       <c r="F303" s="11"/>
     </row>
-    <row r="304" spans="1:6" ht="20">
+    <row r="304" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -3005,7 +3023,7 @@
       <c r="E304" s="6"/>
       <c r="F304" s="7"/>
     </row>
-    <row r="305" spans="1:6" ht="20">
+    <row r="305" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="8"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -3013,7 +3031,7 @@
       <c r="E305" s="10"/>
       <c r="F305" s="11"/>
     </row>
-    <row r="306" spans="1:6" ht="20">
+    <row r="306" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -3021,7 +3039,7 @@
       <c r="E306" s="6"/>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="1:6" ht="20">
+    <row r="307" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="8"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -3029,7 +3047,7 @@
       <c r="E307" s="10"/>
       <c r="F307" s="11"/>
     </row>
-    <row r="308" spans="1:6" ht="20">
+    <row r="308" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -3037,7 +3055,7 @@
       <c r="E308" s="6"/>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="1:6" ht="20">
+    <row r="309" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="8"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -3045,7 +3063,7 @@
       <c r="E309" s="10"/>
       <c r="F309" s="11"/>
     </row>
-    <row r="310" spans="1:6" ht="20">
+    <row r="310" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -3053,7 +3071,7 @@
       <c r="E310" s="6"/>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="1:6" ht="20">
+    <row r="311" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="8"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -3061,7 +3079,7 @@
       <c r="E311" s="10"/>
       <c r="F311" s="11"/>
     </row>
-    <row r="312" spans="1:6" ht="20">
+    <row r="312" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -3069,7 +3087,7 @@
       <c r="E312" s="6"/>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="1:6" ht="20">
+    <row r="313" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="8"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -3077,7 +3095,7 @@
       <c r="E313" s="10"/>
       <c r="F313" s="11"/>
     </row>
-    <row r="314" spans="1:6" ht="20">
+    <row r="314" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -3085,7 +3103,7 @@
       <c r="E314" s="6"/>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="1:6" ht="20">
+    <row r="315" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="8"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -3093,7 +3111,7 @@
       <c r="E315" s="10"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" ht="20">
+    <row r="316" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -3101,7 +3119,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="1:6" ht="20">
+    <row r="317" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="8"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -3109,7 +3127,7 @@
       <c r="E317" s="10"/>
       <c r="F317" s="11"/>
     </row>
-    <row r="318" spans="1:6" ht="20">
+    <row r="318" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -3117,7 +3135,7 @@
       <c r="E318" s="6"/>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="1:6" ht="20">
+    <row r="319" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="8"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -3125,7 +3143,7 @@
       <c r="E319" s="10"/>
       <c r="F319" s="11"/>
     </row>
-    <row r="320" spans="1:6" ht="20">
+    <row r="320" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -3133,7 +3151,7 @@
       <c r="E320" s="6"/>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="1:6" ht="20">
+    <row r="321" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="8"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -3141,7 +3159,7 @@
       <c r="E321" s="10"/>
       <c r="F321" s="11"/>
     </row>
-    <row r="322" spans="1:6" ht="20">
+    <row r="322" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -3149,7 +3167,7 @@
       <c r="E322" s="6"/>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="1:6" ht="20">
+    <row r="323" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="8"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -3157,7 +3175,7 @@
       <c r="E323" s="10"/>
       <c r="F323" s="11"/>
     </row>
-    <row r="324" spans="1:6" ht="20">
+    <row r="324" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -3165,7 +3183,7 @@
       <c r="E324" s="6"/>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="1:6" ht="20">
+    <row r="325" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="8"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -3173,7 +3191,7 @@
       <c r="E325" s="10"/>
       <c r="F325" s="11"/>
     </row>
-    <row r="326" spans="1:6" ht="20">
+    <row r="326" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -3181,7 +3199,7 @@
       <c r="E326" s="6"/>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="1:6" ht="20">
+    <row r="327" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="8"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -3189,7 +3207,7 @@
       <c r="E327" s="10"/>
       <c r="F327" s="11"/>
     </row>
-    <row r="328" spans="1:6" ht="20">
+    <row r="328" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -3197,7 +3215,7 @@
       <c r="E328" s="6"/>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="1:6" ht="20">
+    <row r="329" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="8"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -3205,7 +3223,7 @@
       <c r="E329" s="10"/>
       <c r="F329" s="11"/>
     </row>
-    <row r="330" spans="1:6" ht="20">
+    <row r="330" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -3213,7 +3231,7 @@
       <c r="E330" s="6"/>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="1:6" ht="20">
+    <row r="331" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="8"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -3221,7 +3239,7 @@
       <c r="E331" s="10"/>
       <c r="F331" s="11"/>
     </row>
-    <row r="332" spans="1:6" ht="20">
+    <row r="332" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -3229,7 +3247,7 @@
       <c r="E332" s="6"/>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="1:6" ht="20">
+    <row r="333" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="8"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -3237,7 +3255,7 @@
       <c r="E333" s="10"/>
       <c r="F333" s="11"/>
     </row>
-    <row r="334" spans="1:6" ht="20">
+    <row r="334" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -3245,7 +3263,7 @@
       <c r="E334" s="6"/>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="1:6" ht="20">
+    <row r="335" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="8"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -3253,7 +3271,7 @@
       <c r="E335" s="10"/>
       <c r="F335" s="11"/>
     </row>
-    <row r="336" spans="1:6" ht="20">
+    <row r="336" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -3261,7 +3279,7 @@
       <c r="E336" s="6"/>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="1:6" ht="20">
+    <row r="337" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="8"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -3269,7 +3287,7 @@
       <c r="E337" s="10"/>
       <c r="F337" s="11"/>
     </row>
-    <row r="338" spans="1:6" ht="20">
+    <row r="338" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -3277,7 +3295,7 @@
       <c r="E338" s="6"/>
       <c r="F338" s="7"/>
     </row>
-    <row r="339" spans="1:6" ht="20">
+    <row r="339" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="8"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -3285,7 +3303,7 @@
       <c r="E339" s="10"/>
       <c r="F339" s="11"/>
     </row>
-    <row r="340" spans="1:6" ht="20">
+    <row r="340" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -3293,7 +3311,7 @@
       <c r="E340" s="6"/>
       <c r="F340" s="7"/>
     </row>
-    <row r="341" spans="1:6" ht="20">
+    <row r="341" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="8"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -3301,7 +3319,7 @@
       <c r="E341" s="10"/>
       <c r="F341" s="11"/>
     </row>
-    <row r="342" spans="1:6" ht="20">
+    <row r="342" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -3309,7 +3327,7 @@
       <c r="E342" s="6"/>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="1:6" ht="20">
+    <row r="343" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="8"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -3317,7 +3335,7 @@
       <c r="E343" s="10"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" ht="20">
+    <row r="344" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -3325,7 +3343,7 @@
       <c r="E344" s="6"/>
       <c r="F344" s="7"/>
     </row>
-    <row r="345" spans="1:6" ht="20">
+    <row r="345" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="8"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -3333,7 +3351,7 @@
       <c r="E345" s="10"/>
       <c r="F345" s="11"/>
     </row>
-    <row r="346" spans="1:6" ht="20">
+    <row r="346" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -3341,7 +3359,7 @@
       <c r="E346" s="6"/>
       <c r="F346" s="7"/>
     </row>
-    <row r="347" spans="1:6" ht="20">
+    <row r="347" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="8"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -3349,7 +3367,7 @@
       <c r="E347" s="10"/>
       <c r="F347" s="11"/>
     </row>
-    <row r="348" spans="1:6" ht="20">
+    <row r="348" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -3357,7 +3375,7 @@
       <c r="E348" s="6"/>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="1:6" ht="20">
+    <row r="349" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="8"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -3365,7 +3383,7 @@
       <c r="E349" s="10"/>
       <c r="F349" s="11"/>
     </row>
-    <row r="350" spans="1:6" ht="20">
+    <row r="350" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -3373,7 +3391,7 @@
       <c r="E350" s="6"/>
       <c r="F350" s="7"/>
     </row>
-    <row r="351" spans="1:6" ht="20">
+    <row r="351" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="8"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -3381,7 +3399,7 @@
       <c r="E351" s="10"/>
       <c r="F351" s="11"/>
     </row>
-    <row r="352" spans="1:6" ht="20">
+    <row r="352" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -3389,7 +3407,7 @@
       <c r="E352" s="6"/>
       <c r="F352" s="7"/>
     </row>
-    <row r="353" spans="1:6" ht="20">
+    <row r="353" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="8"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -3397,7 +3415,7 @@
       <c r="E353" s="10"/>
       <c r="F353" s="11"/>
     </row>
-    <row r="354" spans="1:6" ht="20">
+    <row r="354" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -3405,7 +3423,7 @@
       <c r="E354" s="6"/>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="1:6" ht="20">
+    <row r="355" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="8"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -3413,7 +3431,7 @@
       <c r="E355" s="10"/>
       <c r="F355" s="11"/>
     </row>
-    <row r="356" spans="1:6" ht="20">
+    <row r="356" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -3421,7 +3439,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="7"/>
     </row>
-    <row r="357" spans="1:6" ht="20">
+    <row r="357" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="8"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -3429,7 +3447,7 @@
       <c r="E357" s="10"/>
       <c r="F357" s="11"/>
     </row>
-    <row r="358" spans="1:6" ht="20">
+    <row r="358" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -3437,7 +3455,7 @@
       <c r="E358" s="6"/>
       <c r="F358" s="7"/>
     </row>
-    <row r="359" spans="1:6" ht="20">
+    <row r="359" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="8"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -3445,7 +3463,7 @@
       <c r="E359" s="10"/>
       <c r="F359" s="11"/>
     </row>
-    <row r="360" spans="1:6" ht="20">
+    <row r="360" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -3453,7 +3471,7 @@
       <c r="E360" s="6"/>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="1:6" ht="20">
+    <row r="361" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="8"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -3461,7 +3479,7 @@
       <c r="E361" s="10"/>
       <c r="F361" s="11"/>
     </row>
-    <row r="362" spans="1:6" ht="20">
+    <row r="362" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -3469,7 +3487,7 @@
       <c r="E362" s="6"/>
       <c r="F362" s="7"/>
     </row>
-    <row r="363" spans="1:6" ht="20">
+    <row r="363" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="8"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -3477,7 +3495,7 @@
       <c r="E363" s="10"/>
       <c r="F363" s="11"/>
     </row>
-    <row r="364" spans="1:6" ht="20">
+    <row r="364" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -3485,7 +3503,7 @@
       <c r="E364" s="6"/>
       <c r="F364" s="7"/>
     </row>
-    <row r="365" spans="1:6" ht="20">
+    <row r="365" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="8"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -3493,7 +3511,7 @@
       <c r="E365" s="10"/>
       <c r="F365" s="11"/>
     </row>
-    <row r="366" spans="1:6" ht="20">
+    <row r="366" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -3501,7 +3519,7 @@
       <c r="E366" s="6"/>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="1:6" ht="20">
+    <row r="367" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="8"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -3509,7 +3527,7 @@
       <c r="E367" s="10"/>
       <c r="F367" s="11"/>
     </row>
-    <row r="368" spans="1:6" ht="20">
+    <row r="368" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -3517,7 +3535,7 @@
       <c r="E368" s="6"/>
       <c r="F368" s="7"/>
     </row>
-    <row r="369" spans="1:6" ht="20">
+    <row r="369" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="8"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -3525,7 +3543,7 @@
       <c r="E369" s="10"/>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6" ht="20">
+    <row r="370" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -3533,7 +3551,7 @@
       <c r="E370" s="6"/>
       <c r="F370" s="7"/>
     </row>
-    <row r="371" spans="1:6" ht="20">
+    <row r="371" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="8"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -3541,7 +3559,7 @@
       <c r="E371" s="10"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" ht="20">
+    <row r="372" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -3549,7 +3567,7 @@
       <c r="E372" s="6"/>
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="1:6" ht="20">
+    <row r="373" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="8"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -3557,7 +3575,7 @@
       <c r="E373" s="10"/>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6" ht="20">
+    <row r="374" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -3565,7 +3583,7 @@
       <c r="E374" s="6"/>
       <c r="F374" s="7"/>
     </row>
-    <row r="375" spans="1:6" ht="20">
+    <row r="375" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="8"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -3573,7 +3591,7 @@
       <c r="E375" s="10"/>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6" ht="20">
+    <row r="376" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -3581,7 +3599,7 @@
       <c r="E376" s="6"/>
       <c r="F376" s="7"/>
     </row>
-    <row r="377" spans="1:6" ht="20">
+    <row r="377" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="8"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -3589,7 +3607,7 @@
       <c r="E377" s="10"/>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6" ht="20">
+    <row r="378" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -3597,7 +3615,7 @@
       <c r="E378" s="6"/>
       <c r="F378" s="7"/>
     </row>
-    <row r="379" spans="1:6" ht="20">
+    <row r="379" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="8"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -3605,7 +3623,7 @@
       <c r="E379" s="10"/>
       <c r="F379" s="11"/>
     </row>
-    <row r="380" spans="1:6" ht="20">
+    <row r="380" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -3613,7 +3631,7 @@
       <c r="E380" s="6"/>
       <c r="F380" s="7"/>
     </row>
-    <row r="381" spans="1:6" ht="20">
+    <row r="381" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="8"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -3621,7 +3639,7 @@
       <c r="E381" s="10"/>
       <c r="F381" s="11"/>
     </row>
-    <row r="382" spans="1:6" ht="20">
+    <row r="382" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -3629,7 +3647,7 @@
       <c r="E382" s="6"/>
       <c r="F382" s="7"/>
     </row>
-    <row r="383" spans="1:6" ht="20">
+    <row r="383" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="8"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -3637,7 +3655,7 @@
       <c r="E383" s="10"/>
       <c r="F383" s="11"/>
     </row>
-    <row r="384" spans="1:6" ht="20">
+    <row r="384" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -3645,7 +3663,7 @@
       <c r="E384" s="6"/>
       <c r="F384" s="7"/>
     </row>
-    <row r="385" spans="1:6" ht="20">
+    <row r="385" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="8"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -3653,7 +3671,7 @@
       <c r="E385" s="10"/>
       <c r="F385" s="11"/>
     </row>
-    <row r="386" spans="1:6" ht="20">
+    <row r="386" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -3661,7 +3679,7 @@
       <c r="E386" s="6"/>
       <c r="F386" s="7"/>
     </row>
-    <row r="387" spans="1:6" ht="20">
+    <row r="387" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="8"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -3669,7 +3687,7 @@
       <c r="E387" s="10"/>
       <c r="F387" s="11"/>
     </row>
-    <row r="388" spans="1:6" ht="20">
+    <row r="388" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -3677,7 +3695,7 @@
       <c r="E388" s="6"/>
       <c r="F388" s="7"/>
     </row>
-    <row r="389" spans="1:6" ht="20">
+    <row r="389" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="8"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -3685,7 +3703,7 @@
       <c r="E389" s="10"/>
       <c r="F389" s="11"/>
     </row>
-    <row r="390" spans="1:6" ht="20">
+    <row r="390" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -3693,7 +3711,7 @@
       <c r="E390" s="6"/>
       <c r="F390" s="7"/>
     </row>
-    <row r="391" spans="1:6" ht="20">
+    <row r="391" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="8"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -3701,7 +3719,7 @@
       <c r="E391" s="10"/>
       <c r="F391" s="11"/>
     </row>
-    <row r="392" spans="1:6" ht="20">
+    <row r="392" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -3709,7 +3727,7 @@
       <c r="E392" s="6"/>
       <c r="F392" s="7"/>
     </row>
-    <row r="393" spans="1:6" ht="20">
+    <row r="393" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="8"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -3717,7 +3735,7 @@
       <c r="E393" s="10"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" ht="20">
+    <row r="394" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -3725,7 +3743,7 @@
       <c r="E394" s="6"/>
       <c r="F394" s="7"/>
     </row>
-    <row r="395" spans="1:6" ht="20">
+    <row r="395" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="8"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -3733,7 +3751,7 @@
       <c r="E395" s="10"/>
       <c r="F395" s="11"/>
     </row>
-    <row r="396" spans="1:6" ht="20">
+    <row r="396" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -3741,7 +3759,7 @@
       <c r="E396" s="6"/>
       <c r="F396" s="7"/>
     </row>
-    <row r="397" spans="1:6" ht="20">
+    <row r="397" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="8"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -3749,7 +3767,7 @@
       <c r="E397" s="10"/>
       <c r="F397" s="11"/>
     </row>
-    <row r="398" spans="1:6" ht="20">
+    <row r="398" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -3757,7 +3775,7 @@
       <c r="E398" s="6"/>
       <c r="F398" s="7"/>
     </row>
-    <row r="399" spans="1:6" ht="20">
+    <row r="399" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="8"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -3765,7 +3783,7 @@
       <c r="E399" s="10"/>
       <c r="F399" s="11"/>
     </row>
-    <row r="400" spans="1:6" ht="20">
+    <row r="400" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -3773,7 +3791,7 @@
       <c r="E400" s="6"/>
       <c r="F400" s="7"/>
     </row>
-    <row r="401" spans="1:6" ht="20">
+    <row r="401" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="8"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -3781,7 +3799,7 @@
       <c r="E401" s="10"/>
       <c r="F401" s="11"/>
     </row>
-    <row r="402" spans="1:6" ht="20">
+    <row r="402" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -3789,7 +3807,7 @@
       <c r="E402" s="6"/>
       <c r="F402" s="7"/>
     </row>
-    <row r="403" spans="1:6" ht="20">
+    <row r="403" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="8"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -3797,7 +3815,7 @@
       <c r="E403" s="10"/>
       <c r="F403" s="11"/>
     </row>
-    <row r="404" spans="1:6" ht="20">
+    <row r="404" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -3805,7 +3823,7 @@
       <c r="E404" s="6"/>
       <c r="F404" s="7"/>
     </row>
-    <row r="405" spans="1:6" ht="20">
+    <row r="405" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="8"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -3813,7 +3831,7 @@
       <c r="E405" s="10"/>
       <c r="F405" s="11"/>
     </row>
-    <row r="406" spans="1:6" ht="20">
+    <row r="406" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -3821,7 +3839,7 @@
       <c r="E406" s="6"/>
       <c r="F406" s="7"/>
     </row>
-    <row r="407" spans="1:6" ht="20">
+    <row r="407" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="8"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -3829,7 +3847,7 @@
       <c r="E407" s="10"/>
       <c r="F407" s="11"/>
     </row>
-    <row r="408" spans="1:6" ht="20">
+    <row r="408" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -3837,7 +3855,7 @@
       <c r="E408" s="6"/>
       <c r="F408" s="7"/>
     </row>
-    <row r="409" spans="1:6" ht="20">
+    <row r="409" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="8"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -3845,7 +3863,7 @@
       <c r="E409" s="10"/>
       <c r="F409" s="11"/>
     </row>
-    <row r="410" spans="1:6" ht="20">
+    <row r="410" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -3853,7 +3871,7 @@
       <c r="E410" s="6"/>
       <c r="F410" s="7"/>
     </row>
-    <row r="411" spans="1:6" ht="20">
+    <row r="411" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="8"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -3861,7 +3879,7 @@
       <c r="E411" s="10"/>
       <c r="F411" s="11"/>
     </row>
-    <row r="412" spans="1:6" ht="20">
+    <row r="412" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -3869,7 +3887,7 @@
       <c r="E412" s="6"/>
       <c r="F412" s="7"/>
     </row>
-    <row r="413" spans="1:6" ht="20">
+    <row r="413" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="8"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -3877,7 +3895,7 @@
       <c r="E413" s="10"/>
       <c r="F413" s="11"/>
     </row>
-    <row r="414" spans="1:6" ht="20">
+    <row r="414" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -3885,7 +3903,7 @@
       <c r="E414" s="6"/>
       <c r="F414" s="7"/>
     </row>
-    <row r="415" spans="1:6" ht="20">
+    <row r="415" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="8"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -3893,7 +3911,7 @@
       <c r="E415" s="10"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" ht="20">
+    <row r="416" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -3901,7 +3919,7 @@
       <c r="E416" s="6"/>
       <c r="F416" s="7"/>
     </row>
-    <row r="417" spans="1:6" ht="20">
+    <row r="417" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="8"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -3909,7 +3927,7 @@
       <c r="E417" s="10"/>
       <c r="F417" s="11"/>
     </row>
-    <row r="418" spans="1:6" ht="20">
+    <row r="418" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -3917,7 +3935,7 @@
       <c r="E418" s="6"/>
       <c r="F418" s="7"/>
     </row>
-    <row r="419" spans="1:6" ht="20">
+    <row r="419" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="8"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -3925,7 +3943,7 @@
       <c r="E419" s="10"/>
       <c r="F419" s="11"/>
     </row>
-    <row r="420" spans="1:6" ht="20">
+    <row r="420" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -3933,7 +3951,7 @@
       <c r="E420" s="6"/>
       <c r="F420" s="7"/>
     </row>
-    <row r="421" spans="1:6" ht="20">
+    <row r="421" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="8"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -3941,7 +3959,7 @@
       <c r="E421" s="10"/>
       <c r="F421" s="11"/>
     </row>
-    <row r="422" spans="1:6" ht="20">
+    <row r="422" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -3949,7 +3967,7 @@
       <c r="E422" s="6"/>
       <c r="F422" s="7"/>
     </row>
-    <row r="423" spans="1:6" ht="20">
+    <row r="423" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="8"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -3957,7 +3975,7 @@
       <c r="E423" s="10"/>
       <c r="F423" s="11"/>
     </row>
-    <row r="424" spans="1:6" ht="20">
+    <row r="424" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -3965,7 +3983,7 @@
       <c r="E424" s="6"/>
       <c r="F424" s="7"/>
     </row>
-    <row r="425" spans="1:6" ht="20">
+    <row r="425" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="8"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -3973,7 +3991,7 @@
       <c r="E425" s="10"/>
       <c r="F425" s="11"/>
     </row>
-    <row r="426" spans="1:6" ht="20">
+    <row r="426" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -3981,7 +3999,7 @@
       <c r="E426" s="6"/>
       <c r="F426" s="7"/>
     </row>
-    <row r="427" spans="1:6" ht="20">
+    <row r="427" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="8"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -3989,7 +4007,7 @@
       <c r="E427" s="10"/>
       <c r="F427" s="11"/>
     </row>
-    <row r="428" spans="1:6" ht="20">
+    <row r="428" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -3997,7 +4015,7 @@
       <c r="E428" s="6"/>
       <c r="F428" s="7"/>
     </row>
-    <row r="429" spans="1:6" ht="20">
+    <row r="429" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="8"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -4005,7 +4023,7 @@
       <c r="E429" s="10"/>
       <c r="F429" s="11"/>
     </row>
-    <row r="430" spans="1:6" ht="20">
+    <row r="430" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -4013,7 +4031,7 @@
       <c r="E430" s="6"/>
       <c r="F430" s="7"/>
     </row>
-    <row r="431" spans="1:6" ht="20">
+    <row r="431" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="8"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -4021,7 +4039,7 @@
       <c r="E431" s="10"/>
       <c r="F431" s="11"/>
     </row>
-    <row r="432" spans="1:6" ht="20">
+    <row r="432" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -4029,7 +4047,7 @@
       <c r="E432" s="6"/>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="1:6" ht="20">
+    <row r="433" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="8"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -4037,7 +4055,7 @@
       <c r="E433" s="10"/>
       <c r="F433" s="11"/>
     </row>
-    <row r="434" spans="1:6" ht="20">
+    <row r="434" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -4045,7 +4063,7 @@
       <c r="E434" s="6"/>
       <c r="F434" s="7"/>
     </row>
-    <row r="435" spans="1:6" ht="20">
+    <row r="435" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="8"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -4053,7 +4071,7 @@
       <c r="E435" s="10"/>
       <c r="F435" s="11"/>
     </row>
-    <row r="436" spans="1:6" ht="20">
+    <row r="436" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -4061,7 +4079,7 @@
       <c r="E436" s="6"/>
       <c r="F436" s="7"/>
     </row>
-    <row r="437" spans="1:6" ht="20">
+    <row r="437" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="8"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -4069,7 +4087,7 @@
       <c r="E437" s="10"/>
       <c r="F437" s="11"/>
     </row>
-    <row r="438" spans="1:6" ht="20">
+    <row r="438" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -4077,7 +4095,7 @@
       <c r="E438" s="6"/>
       <c r="F438" s="7"/>
     </row>
-    <row r="439" spans="1:6" ht="20">
+    <row r="439" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="8"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -4085,7 +4103,7 @@
       <c r="E439" s="10"/>
       <c r="F439" s="11"/>
     </row>
-    <row r="440" spans="1:6" ht="20">
+    <row r="440" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -4093,7 +4111,7 @@
       <c r="E440" s="6"/>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="1:6" ht="20">
+    <row r="441" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="8"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -4101,7 +4119,7 @@
       <c r="E441" s="10"/>
       <c r="F441" s="11"/>
     </row>
-    <row r="442" spans="1:6" ht="20">
+    <row r="442" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -4109,7 +4127,7 @@
       <c r="E442" s="6"/>
       <c r="F442" s="7"/>
     </row>
-    <row r="443" spans="1:6" ht="20">
+    <row r="443" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="8"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -4117,7 +4135,7 @@
       <c r="E443" s="10"/>
       <c r="F443" s="11"/>
     </row>
-    <row r="444" spans="1:6" ht="20">
+    <row r="444" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -4125,7 +4143,7 @@
       <c r="E444" s="6"/>
       <c r="F444" s="7"/>
     </row>
-    <row r="445" spans="1:6" ht="20">
+    <row r="445" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="8"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -4133,7 +4151,7 @@
       <c r="E445" s="10"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" ht="20">
+    <row r="446" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -4141,7 +4159,7 @@
       <c r="E446" s="6"/>
       <c r="F446" s="7"/>
     </row>
-    <row r="447" spans="1:6" ht="20">
+    <row r="447" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="8"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -4149,7 +4167,7 @@
       <c r="E447" s="10"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" ht="20">
+    <row r="448" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -4157,7 +4175,7 @@
       <c r="E448" s="6"/>
       <c r="F448" s="7"/>
     </row>
-    <row r="449" spans="1:6" ht="20">
+    <row r="449" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="8"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -4165,7 +4183,7 @@
       <c r="E449" s="10"/>
       <c r="F449" s="11"/>
     </row>
-    <row r="450" spans="1:6" ht="20">
+    <row r="450" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="4"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -4173,7 +4191,7 @@
       <c r="E450" s="6"/>
       <c r="F450" s="7"/>
     </row>
-    <row r="451" spans="1:6" ht="20">
+    <row r="451" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="8"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -4181,7 +4199,7 @@
       <c r="E451" s="10"/>
       <c r="F451" s="11"/>
     </row>
-    <row r="452" spans="1:6" ht="20">
+    <row r="452" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="4"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -4189,7 +4207,7 @@
       <c r="E452" s="6"/>
       <c r="F452" s="7"/>
     </row>
-    <row r="453" spans="1:6" ht="20">
+    <row r="453" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="8"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -4197,7 +4215,7 @@
       <c r="E453" s="10"/>
       <c r="F453" s="11"/>
     </row>
-    <row r="454" spans="1:6" ht="20">
+    <row r="454" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="4"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -4205,7 +4223,7 @@
       <c r="E454" s="6"/>
       <c r="F454" s="7"/>
     </row>
-    <row r="455" spans="1:6" ht="20">
+    <row r="455" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="8"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -4213,7 +4231,7 @@
       <c r="E455" s="10"/>
       <c r="F455" s="11"/>
     </row>
-    <row r="456" spans="1:6" ht="20">
+    <row r="456" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="4"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -4221,7 +4239,7 @@
       <c r="E456" s="6"/>
       <c r="F456" s="7"/>
     </row>
-    <row r="457" spans="1:6" ht="20">
+    <row r="457" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="8"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -4229,7 +4247,7 @@
       <c r="E457" s="10"/>
       <c r="F457" s="11"/>
     </row>
-    <row r="458" spans="1:6" ht="20">
+    <row r="458" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="4"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -4237,7 +4255,7 @@
       <c r="E458" s="6"/>
       <c r="F458" s="7"/>
     </row>
-    <row r="459" spans="1:6" ht="20">
+    <row r="459" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="8"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -4245,7 +4263,7 @@
       <c r="E459" s="10"/>
       <c r="F459" s="11"/>
     </row>
-    <row r="460" spans="1:6" ht="20">
+    <row r="460" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="4"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -4253,7 +4271,7 @@
       <c r="E460" s="6"/>
       <c r="F460" s="7"/>
     </row>
-    <row r="461" spans="1:6" ht="20">
+    <row r="461" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="8"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -4261,7 +4279,7 @@
       <c r="E461" s="10"/>
       <c r="F461" s="11"/>
     </row>
-    <row r="462" spans="1:6" ht="20">
+    <row r="462" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="4"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -4269,7 +4287,7 @@
       <c r="E462" s="6"/>
       <c r="F462" s="7"/>
     </row>
-    <row r="463" spans="1:6" ht="20">
+    <row r="463" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="8"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -4277,7 +4295,7 @@
       <c r="E463" s="10"/>
       <c r="F463" s="11"/>
     </row>
-    <row r="464" spans="1:6" ht="20">
+    <row r="464" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="4"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -4285,7 +4303,7 @@
       <c r="E464" s="6"/>
       <c r="F464" s="7"/>
     </row>
-    <row r="465" spans="1:6" ht="20">
+    <row r="465" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="8"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -4293,7 +4311,7 @@
       <c r="E465" s="10"/>
       <c r="F465" s="11"/>
     </row>
-    <row r="466" spans="1:6" ht="20">
+    <row r="466" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="4"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -4301,7 +4319,7 @@
       <c r="E466" s="6"/>
       <c r="F466" s="7"/>
     </row>
-    <row r="467" spans="1:6" ht="20">
+    <row r="467" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="8"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -4309,7 +4327,7 @@
       <c r="E467" s="10"/>
       <c r="F467" s="11"/>
     </row>
-    <row r="468" spans="1:6" ht="20">
+    <row r="468" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="4"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -4317,7 +4335,7 @@
       <c r="E468" s="6"/>
       <c r="F468" s="7"/>
     </row>
-    <row r="469" spans="1:6" ht="20">
+    <row r="469" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="8"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -4325,7 +4343,7 @@
       <c r="E469" s="10"/>
       <c r="F469" s="11"/>
     </row>
-    <row r="470" spans="1:6" ht="20">
+    <row r="470" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="4"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -4333,7 +4351,7 @@
       <c r="E470" s="6"/>
       <c r="F470" s="7"/>
     </row>
-    <row r="471" spans="1:6" ht="20">
+    <row r="471" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="8"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -4341,7 +4359,7 @@
       <c r="E471" s="10"/>
       <c r="F471" s="11"/>
     </row>
-    <row r="472" spans="1:6" ht="20">
+    <row r="472" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="4"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -4349,7 +4367,7 @@
       <c r="E472" s="6"/>
       <c r="F472" s="7"/>
     </row>
-    <row r="473" spans="1:6" ht="20">
+    <row r="473" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="8"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -4357,7 +4375,7 @@
       <c r="E473" s="10"/>
       <c r="F473" s="11"/>
     </row>
-    <row r="474" spans="1:6" ht="20">
+    <row r="474" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="4"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -4365,7 +4383,7 @@
       <c r="E474" s="6"/>
       <c r="F474" s="7"/>
     </row>
-    <row r="475" spans="1:6" ht="20">
+    <row r="475" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="8"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -4373,7 +4391,7 @@
       <c r="E475" s="10"/>
       <c r="F475" s="11"/>
     </row>
-    <row r="476" spans="1:6" ht="20">
+    <row r="476" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="4"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -4381,7 +4399,7 @@
       <c r="E476" s="6"/>
       <c r="F476" s="7"/>
     </row>
-    <row r="477" spans="1:6" ht="20">
+    <row r="477" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="8"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -4389,7 +4407,7 @@
       <c r="E477" s="10"/>
       <c r="F477" s="11"/>
     </row>
-    <row r="478" spans="1:6" ht="20">
+    <row r="478" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="4"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -4397,7 +4415,7 @@
       <c r="E478" s="6"/>
       <c r="F478" s="7"/>
     </row>
-    <row r="479" spans="1:6" ht="20">
+    <row r="479" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="8"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -4405,7 +4423,7 @@
       <c r="E479" s="10"/>
       <c r="F479" s="11"/>
     </row>
-    <row r="480" spans="1:6" ht="20">
+    <row r="480" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="4"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -4413,7 +4431,7 @@
       <c r="E480" s="6"/>
       <c r="F480" s="7"/>
     </row>
-    <row r="481" spans="1:6" ht="20">
+    <row r="481" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="8"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -4421,7 +4439,7 @@
       <c r="E481" s="10"/>
       <c r="F481" s="11"/>
     </row>
-    <row r="482" spans="1:6" ht="20">
+    <row r="482" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="4"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -4429,7 +4447,7 @@
       <c r="E482" s="6"/>
       <c r="F482" s="7"/>
     </row>
-    <row r="483" spans="1:6" ht="20">
+    <row r="483" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="8"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -4437,7 +4455,7 @@
       <c r="E483" s="10"/>
       <c r="F483" s="11"/>
     </row>
-    <row r="484" spans="1:6" ht="20">
+    <row r="484" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="4"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -4445,7 +4463,7 @@
       <c r="E484" s="6"/>
       <c r="F484" s="7"/>
     </row>
-    <row r="485" spans="1:6" ht="20">
+    <row r="485" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="8"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -4453,7 +4471,7 @@
       <c r="E485" s="10"/>
       <c r="F485" s="11"/>
     </row>
-    <row r="486" spans="1:6" ht="20">
+    <row r="486" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="4"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -4461,7 +4479,7 @@
       <c r="E486" s="6"/>
       <c r="F486" s="7"/>
     </row>
-    <row r="487" spans="1:6" ht="20">
+    <row r="487" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="8"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -4469,7 +4487,7 @@
       <c r="E487" s="10"/>
       <c r="F487" s="11"/>
     </row>
-    <row r="488" spans="1:6" ht="20">
+    <row r="488" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -4477,7 +4495,7 @@
       <c r="E488" s="6"/>
       <c r="F488" s="7"/>
     </row>
-    <row r="489" spans="1:6" ht="20">
+    <row r="489" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="8"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -4485,7 +4503,7 @@
       <c r="E489" s="10"/>
       <c r="F489" s="11"/>
     </row>
-    <row r="490" spans="1:6" ht="20">
+    <row r="490" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -4493,7 +4511,7 @@
       <c r="E490" s="6"/>
       <c r="F490" s="7"/>
     </row>
-    <row r="491" spans="1:6" ht="20">
+    <row r="491" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="8"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -4501,7 +4519,7 @@
       <c r="E491" s="10"/>
       <c r="F491" s="11"/>
     </row>
-    <row r="492" spans="1:6" ht="20">
+    <row r="492" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -4509,7 +4527,7 @@
       <c r="E492" s="6"/>
       <c r="F492" s="7"/>
     </row>
-    <row r="493" spans="1:6" ht="20">
+    <row r="493" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="8"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -4517,7 +4535,7 @@
       <c r="E493" s="10"/>
       <c r="F493" s="11"/>
     </row>
-    <row r="494" spans="1:6" ht="20">
+    <row r="494" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="4"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -4525,7 +4543,7 @@
       <c r="E494" s="6"/>
       <c r="F494" s="7"/>
     </row>
-    <row r="495" spans="1:6" ht="20">
+    <row r="495" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="8"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -4533,7 +4551,7 @@
       <c r="E495" s="10"/>
       <c r="F495" s="11"/>
     </row>
-    <row r="496" spans="1:6" ht="20">
+    <row r="496" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -4541,7 +4559,7 @@
       <c r="E496" s="6"/>
       <c r="F496" s="7"/>
     </row>
-    <row r="497" spans="1:6" ht="20">
+    <row r="497" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="8"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -4549,7 +4567,7 @@
       <c r="E497" s="10"/>
       <c r="F497" s="11"/>
     </row>
-    <row r="498" spans="1:6" ht="20">
+    <row r="498" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -4557,7 +4575,7 @@
       <c r="E498" s="6"/>
       <c r="F498" s="7"/>
     </row>
-    <row r="499" spans="1:6" ht="20">
+    <row r="499" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="8"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -4565,7 +4583,7 @@
       <c r="E499" s="10"/>
       <c r="F499" s="11"/>
     </row>
-    <row r="500" spans="1:6" ht="20">
+    <row r="500" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -4573,7 +4591,7 @@
       <c r="E500" s="6"/>
       <c r="F500" s="7"/>
     </row>
-    <row r="501" spans="1:6" ht="20">
+    <row r="501" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="8"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -4581,7 +4599,7 @@
       <c r="E501" s="10"/>
       <c r="F501" s="11"/>
     </row>
-    <row r="502" spans="1:6" ht="20">
+    <row r="502" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -4589,7 +4607,7 @@
       <c r="E502" s="6"/>
       <c r="F502" s="7"/>
     </row>
-    <row r="503" spans="1:6" ht="20">
+    <row r="503" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="8"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -4597,7 +4615,7 @@
       <c r="E503" s="10"/>
       <c r="F503" s="11"/>
     </row>
-    <row r="504" spans="1:6" ht="20">
+    <row r="504" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -4605,7 +4623,7 @@
       <c r="E504" s="6"/>
       <c r="F504" s="7"/>
     </row>
-    <row r="505" spans="1:6" ht="20">
+    <row r="505" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="8"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -4613,7 +4631,7 @@
       <c r="E505" s="10"/>
       <c r="F505" s="11"/>
     </row>
-    <row r="506" spans="1:6" ht="20">
+    <row r="506" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -4621,7 +4639,7 @@
       <c r="E506" s="6"/>
       <c r="F506" s="7"/>
     </row>
-    <row r="507" spans="1:6" ht="20">
+    <row r="507" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="8"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -4629,7 +4647,7 @@
       <c r="E507" s="10"/>
       <c r="F507" s="11"/>
     </row>
-    <row r="508" spans="1:6" ht="20">
+    <row r="508" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -4637,7 +4655,7 @@
       <c r="E508" s="6"/>
       <c r="F508" s="7"/>
     </row>
-    <row r="509" spans="1:6" ht="20">
+    <row r="509" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="8"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -4645,7 +4663,7 @@
       <c r="E509" s="10"/>
       <c r="F509" s="11"/>
     </row>
-    <row r="510" spans="1:6" ht="20">
+    <row r="510" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="4"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -4653,7 +4671,7 @@
       <c r="E510" s="6"/>
       <c r="F510" s="7"/>
     </row>
-    <row r="511" spans="1:6" ht="20">
+    <row r="511" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="8"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -4661,7 +4679,7 @@
       <c r="E511" s="10"/>
       <c r="F511" s="11"/>
     </row>
-    <row r="512" spans="1:6" ht="20">
+    <row r="512" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="4"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -4669,7 +4687,7 @@
       <c r="E512" s="6"/>
       <c r="F512" s="7"/>
     </row>
-    <row r="513" spans="1:6" ht="20">
+    <row r="513" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="8"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -4677,7 +4695,7 @@
       <c r="E513" s="10"/>
       <c r="F513" s="11"/>
     </row>
-    <row r="514" spans="1:6" ht="20">
+    <row r="514" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="4"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -4685,7 +4703,7 @@
       <c r="E514" s="6"/>
       <c r="F514" s="7"/>
     </row>
-    <row r="515" spans="1:6" ht="20">
+    <row r="515" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="8"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -4693,7 +4711,7 @@
       <c r="E515" s="10"/>
       <c r="F515" s="11"/>
     </row>
-    <row r="516" spans="1:6" ht="20">
+    <row r="516" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="4"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -4701,7 +4719,7 @@
       <c r="E516" s="6"/>
       <c r="F516" s="7"/>
     </row>
-    <row r="517" spans="1:6" ht="20">
+    <row r="517" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="8"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -4709,7 +4727,7 @@
       <c r="E517" s="10"/>
       <c r="F517" s="11"/>
     </row>
-    <row r="518" spans="1:6" ht="20">
+    <row r="518" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="4"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -4717,7 +4735,7 @@
       <c r="E518" s="6"/>
       <c r="F518" s="7"/>
     </row>
-    <row r="519" spans="1:6" ht="20">
+    <row r="519" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="8"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -4725,7 +4743,7 @@
       <c r="E519" s="10"/>
       <c r="F519" s="11"/>
     </row>
-    <row r="520" spans="1:6" ht="20">
+    <row r="520" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="4"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -4733,7 +4751,7 @@
       <c r="E520" s="6"/>
       <c r="F520" s="7"/>
     </row>
-    <row r="521" spans="1:6" ht="20">
+    <row r="521" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="8"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -4741,7 +4759,7 @@
       <c r="E521" s="10"/>
       <c r="F521" s="11"/>
     </row>
-    <row r="522" spans="1:6" ht="20">
+    <row r="522" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="4"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -4749,7 +4767,7 @@
       <c r="E522" s="6"/>
       <c r="F522" s="7"/>
     </row>
-    <row r="523" spans="1:6" ht="20">
+    <row r="523" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="8"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -4757,7 +4775,7 @@
       <c r="E523" s="10"/>
       <c r="F523" s="11"/>
     </row>
-    <row r="524" spans="1:6" ht="20">
+    <row r="524" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="4"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -4765,7 +4783,7 @@
       <c r="E524" s="6"/>
       <c r="F524" s="7"/>
     </row>
-    <row r="525" spans="1:6" ht="20">
+    <row r="525" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="8"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -4773,7 +4791,7 @@
       <c r="E525" s="10"/>
       <c r="F525" s="11"/>
     </row>
-    <row r="526" spans="1:6" ht="20">
+    <row r="526" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="4"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -4781,7 +4799,7 @@
       <c r="E526" s="6"/>
       <c r="F526" s="7"/>
     </row>
-    <row r="527" spans="1:6" ht="20">
+    <row r="527" spans="1:6" ht="21" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="12"/>
       <c r="B527" s="13"/>
       <c r="C527" s="13"/>
